--- a/output/fit_clients/fit_round_126.xlsx
+++ b/output/fit_clients/fit_round_126.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1750850880.120058</v>
+        <v>1803442063.712147</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1075959763306924</v>
+        <v>0.09940383492771425</v>
       </c>
       <c r="G2" t="n">
-        <v>0.02793797907535263</v>
+        <v>0.04201327714056027</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>875425402.1351279</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1846355224.823107</v>
+        <v>1929812734.653479</v>
       </c>
       <c r="F3" t="n">
-        <v>0.133641459587068</v>
+        <v>0.1112624577313669</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0411816871033245</v>
+        <v>0.04744799899757764</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>3</v>
-      </c>
-      <c r="J3" t="n">
-        <v>923177628.6284994</v>
       </c>
     </row>
     <row r="4">
@@ -558,28 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3586082510.623118</v>
+        <v>3657105528.953941</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1508846932513162</v>
+        <v>0.1543442185813497</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03535615387260534</v>
+        <v>0.03054888301306828</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>46</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1793041240.122766</v>
       </c>
     </row>
     <row r="5">
@@ -598,22 +570,16 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3762925089.829317</v>
+        <v>4058081123.104686</v>
       </c>
       <c r="F5" t="n">
-        <v>0.06679962632330216</v>
+        <v>0.08532292104479008</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04612346942484503</v>
+        <v>0.04881441981793447</v>
       </c>
       <c r="H5" t="b">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>47</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1881462564.252514</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -632,22 +598,16 @@
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>1840893826.970554</v>
+        <v>2642986932.255656</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1401006779922004</v>
+        <v>0.1203606718025627</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04148742231099545</v>
+        <v>0.04660233996770818</v>
       </c>
       <c r="H6" t="b">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>19</v>
-      </c>
-      <c r="J6" t="n">
-        <v>920446960.2484176</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -660,28 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2032381424.738729</v>
+        <v>2777023166.606936</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06914501499908543</v>
+        <v>0.0890127128401775</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04749465578423751</v>
+        <v>0.03303369188397461</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>37</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1016190770.333928</v>
       </c>
     </row>
     <row r="8">
@@ -700,22 +654,16 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2977171123.657497</v>
+        <v>3291143275.830318</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2163410818843937</v>
+        <v>0.1871988647636554</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02823377352260298</v>
+        <v>0.02832388024056644</v>
       </c>
       <c r="H8" t="b">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>40</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1488585616.963439</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1450382523.173145</v>
+        <v>2106186953.600816</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1731494806427701</v>
+        <v>0.1611454650363257</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03259620502218288</v>
+        <v>0.03612132563552872</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>725191364.4124147</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4214220045.586751</v>
+        <v>3653592329.186531</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1741119656013097</v>
+        <v>0.1841283631443159</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04947363510756171</v>
+        <v>0.04120924724220682</v>
       </c>
       <c r="H10" t="b">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>53</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2107110061.235901</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>4232571689.304428</v>
+        <v>4216333439.603521</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1836587249598612</v>
+        <v>0.1765113757657339</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0334679826073665</v>
+        <v>0.04678334847759621</v>
       </c>
       <c r="H11" t="b">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>52</v>
-      </c>
-      <c r="J11" t="n">
-        <v>2116285873.51726</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -830,28 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2312477419.099072</v>
+        <v>2482595666.369868</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1483143974644357</v>
+        <v>0.1638404985282849</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03734989120643638</v>
+        <v>0.03304787934183522</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>45</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1156238664.555627</v>
       </c>
     </row>
     <row r="13">
@@ -870,22 +794,16 @@
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4789278673.712347</v>
+        <v>4227414134.205034</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07784623491569616</v>
+        <v>0.08155246671227064</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02257484704279976</v>
+        <v>0.02390259020185529</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>42</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2394639351.646796</v>
       </c>
     </row>
     <row r="14">
@@ -898,28 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3044227498.129499</v>
+        <v>2757224717.97159</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1857828563406113</v>
+        <v>0.1555357906397821</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03594694791822992</v>
+        <v>0.02782484239769274</v>
       </c>
       <c r="H14" t="b">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>41</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1522113780.249339</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1629125820.947272</v>
+        <v>1437161041.610888</v>
       </c>
       <c r="F15" t="n">
-        <v>0.09938605889593079</v>
+        <v>0.0739185112700841</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04906429443073233</v>
+        <v>0.03789943398505129</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>814563025.197893</v>
       </c>
     </row>
     <row r="16">
@@ -966,28 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>1847722556.186646</v>
+        <v>2197400733.422173</v>
       </c>
       <c r="F16" t="n">
-        <v>0.07988783277392732</v>
+        <v>0.08386130057122189</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04874908849445402</v>
+        <v>0.05056338629834303</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>20</v>
-      </c>
-      <c r="J16" t="n">
-        <v>923861367.1456971</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4517902584.779066</v>
+        <v>3888030428.701553</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1447199374857568</v>
+        <v>0.1514021247388561</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04995973409094042</v>
+        <v>0.03263202231663683</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>37</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2258951301.289729</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3031282721.003489</v>
+        <v>3237930415.709915</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1843855690803671</v>
+        <v>0.1170006801261081</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02328292643058121</v>
+        <v>0.02995637398301258</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>41</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1515641388.423079</v>
       </c>
     </row>
     <row r="19">
@@ -1074,22 +962,16 @@
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1223202821.947874</v>
+        <v>1125933900.051297</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1314892854610403</v>
+        <v>0.1856075074889294</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02248530211713292</v>
+        <v>0.02046094781501672</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>611601494.4716923</v>
       </c>
     </row>
     <row r="20">
@@ -1102,28 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2671069298.825961</v>
+        <v>2475142218.058081</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1014307796247108</v>
+        <v>0.1603179465813807</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02211295212142257</v>
+        <v>0.02043165972967887</v>
       </c>
       <c r="H20" t="b">
         <v>1</v>
-      </c>
-      <c r="I20" t="n">
-        <v>19</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1335534604.241596</v>
       </c>
     </row>
     <row r="21">
@@ -1136,28 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1740753938.174144</v>
+        <v>1976465006.995646</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07195037657074656</v>
+        <v>0.07886948803153246</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03712931107448734</v>
+        <v>0.03121332233337528</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>12</v>
-      </c>
-      <c r="J21" t="n">
-        <v>870377029.7701507</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2843415945.472702</v>
+        <v>2765372085.866854</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1070028954010578</v>
+        <v>0.1425970200082509</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0432410829294383</v>
+        <v>0.04113467337991902</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>35</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1421708043.595321</v>
       </c>
     </row>
     <row r="23">
@@ -1204,28 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1265615484.471967</v>
+        <v>1557258637.4853</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1814357650075863</v>
+        <v>0.1335262592140764</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0502600120733087</v>
+        <v>0.03390380806716787</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>632807767.6173227</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3879264746.810681</v>
+        <v>3619102176.730822</v>
       </c>
       <c r="F24" t="n">
-        <v>0.09868521065990367</v>
+        <v>0.1206899804454662</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03016754268011597</v>
+        <v>0.02281139165575371</v>
       </c>
       <c r="H24" t="b">
         <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>37</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1939632349.475353</v>
       </c>
     </row>
     <row r="25">
@@ -1272,28 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1241397885.258628</v>
+        <v>1067794283.296988</v>
       </c>
       <c r="F25" t="n">
-        <v>0.0827640356143492</v>
+        <v>0.09375769392242918</v>
       </c>
       <c r="G25" t="n">
-        <v>0.03003230318832129</v>
+        <v>0.02846976186059876</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>620698951.024541</v>
       </c>
     </row>
     <row r="26">
@@ -1312,22 +1158,16 @@
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1127966084.364432</v>
+        <v>1070962803.815587</v>
       </c>
       <c r="F26" t="n">
-        <v>0.07709850154453647</v>
+        <v>0.1014970857374068</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02488705187321266</v>
+        <v>0.02546448600691975</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>563983045.5789794</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4276549160.294787</v>
+        <v>4191612404.698957</v>
       </c>
       <c r="F27" t="n">
-        <v>0.131588710166058</v>
+        <v>0.1575476092250577</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01677533763416354</v>
+        <v>0.0236052035353919</v>
       </c>
       <c r="H27" t="b">
         <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>29</v>
-      </c>
-      <c r="J27" t="n">
-        <v>2138274576.543094</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2446175309.844263</v>
+        <v>2570339202.31615</v>
       </c>
       <c r="F28" t="n">
-        <v>0.09304086685206901</v>
+        <v>0.1131722649608059</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03305396672829048</v>
+        <v>0.03439257248100853</v>
       </c>
       <c r="H28" t="b">
-        <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>40</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1223087618.022467</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
@@ -1408,28 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4420710736.304493</v>
+        <v>5261306148.943342</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1238549692922418</v>
+        <v>0.09670077743645858</v>
       </c>
       <c r="G29" t="n">
-        <v>0.02937580991741118</v>
+        <v>0.0364505380141949</v>
       </c>
       <c r="H29" t="b">
         <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>57</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2210355355.769603</v>
       </c>
     </row>
     <row r="30">
@@ -1442,28 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2250624769.302896</v>
+        <v>2112433835.6962</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1102491125546729</v>
+        <v>0.08530034914484709</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03961785151972032</v>
+        <v>0.03218034140228901</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>1125312450.604485</v>
       </c>
     </row>
     <row r="31">
@@ -1482,22 +1298,16 @@
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1040891696.994705</v>
+        <v>1262648083.616352</v>
       </c>
       <c r="F31" t="n">
-        <v>0.08964142069040305</v>
+        <v>0.09085190978811572</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03458177509516646</v>
+        <v>0.03578300575772178</v>
       </c>
       <c r="H31" t="b">
-        <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>520445837.3489352</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
@@ -1510,28 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1794449534.390056</v>
+        <v>1691699147.669967</v>
       </c>
       <c r="F32" t="n">
-        <v>0.09105842627317597</v>
+        <v>0.1184903225069976</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03733474255829767</v>
+        <v>0.03111306849242325</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>897224896.4931489</v>
       </c>
     </row>
     <row r="33">
@@ -1544,28 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>3054317127.75459</v>
+        <v>2434937891.406663</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1683241746273378</v>
+        <v>0.1609323155873736</v>
       </c>
       <c r="G33" t="n">
-        <v>0.03890211013757559</v>
+        <v>0.03911941488714601</v>
       </c>
       <c r="H33" t="b">
         <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>38</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1527158554.829485</v>
       </c>
     </row>
     <row r="34">
@@ -1584,22 +1382,16 @@
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1276331931.128929</v>
+        <v>1343218111.654916</v>
       </c>
       <c r="F34" t="n">
-        <v>0.08677984465859062</v>
+        <v>0.08609748266794455</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02481450593436836</v>
+        <v>0.01845712983396521</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>638165958.0936309</v>
       </c>
     </row>
     <row r="35">
@@ -1618,22 +1410,16 @@
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1276262029.545729</v>
+        <v>1291554735.182279</v>
       </c>
       <c r="F35" t="n">
-        <v>0.08935674130453548</v>
+        <v>0.09332740732767705</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03639667010897227</v>
+        <v>0.04385928691588556</v>
       </c>
       <c r="H35" t="b">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>638130972.7181149</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
@@ -1646,28 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>1995452249.888567</v>
+        <v>2321761261.79947</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1607497145067779</v>
+        <v>0.1098297146311594</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02204682493986631</v>
+        <v>0.02396842448149732</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>32</v>
-      </c>
-      <c r="J36" t="n">
-        <v>997726187.3034341</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2228743027.644668</v>
+        <v>1893000710.553454</v>
       </c>
       <c r="F37" t="n">
-        <v>0.07508203816815699</v>
+        <v>0.07527173136632496</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03730399919881467</v>
+        <v>0.03965580467701293</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>32</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1114371572.526403</v>
       </c>
     </row>
     <row r="38">
@@ -1720,22 +1494,16 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1633935023.110792</v>
+        <v>2059302949.956773</v>
       </c>
       <c r="F38" t="n">
-        <v>0.09383074028593499</v>
+        <v>0.1000874997872456</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03671226467858228</v>
+        <v>0.02778764438952277</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>816967541.8414754</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1861722598.722486</v>
+        <v>1836424536.506798</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1259921869591034</v>
+        <v>0.1264402251234354</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02646863573003706</v>
+        <v>0.03118592258115834</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>930861314.8416594</v>
       </c>
     </row>
     <row r="40">
@@ -1782,28 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1587736291.806087</v>
+        <v>1190792925.628174</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1175188528707447</v>
+        <v>0.1147143020871061</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05127383618893321</v>
+        <v>0.04224195310371699</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>793868090.0655236</v>
       </c>
     </row>
     <row r="41">
@@ -1816,28 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2615090497.140045</v>
+        <v>2870404968.096421</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1361073348673192</v>
+        <v>0.162488383462815</v>
       </c>
       <c r="G41" t="n">
-        <v>0.02965369261871836</v>
+        <v>0.03148288771087896</v>
       </c>
       <c r="H41" t="b">
-        <v>1</v>
-      </c>
-      <c r="I41" t="n">
-        <v>31</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1307545262.568588</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>2854710360.431821</v>
+        <v>2765472382.485403</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1095532401349935</v>
+        <v>0.09827603756925109</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03198398103994178</v>
+        <v>0.03984151291265</v>
       </c>
       <c r="H42" t="b">
-        <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>41</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1427355130.595114</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>1914466758.002327</v>
+        <v>2389439315.379897</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1604188882620605</v>
+        <v>0.1321469128107943</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02531284796747111</v>
+        <v>0.01705076204648822</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>40</v>
-      </c>
-      <c r="J43" t="n">
-        <v>957233486.4721835</v>
       </c>
     </row>
     <row r="44">
@@ -1924,22 +1662,16 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2307620745.358613</v>
+        <v>1638320384.467202</v>
       </c>
       <c r="F44" t="n">
-        <v>0.07034251389584684</v>
+        <v>0.09133734732605005</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02260470394573826</v>
+        <v>0.03253852174860675</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>1153810540.344492</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1578122854.052917</v>
+        <v>2444093853.759223</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1435965091791372</v>
+        <v>0.1265558376511025</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03727128107040531</v>
+        <v>0.04809254690887594</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>789061375.3375669</v>
       </c>
     </row>
     <row r="46">
@@ -1992,22 +1718,16 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4768083891.130803</v>
+        <v>4062834133.959774</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1654832959750595</v>
+        <v>0.17499680481826</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05826480785354885</v>
+        <v>0.05283672808356072</v>
       </c>
       <c r="H46" t="b">
         <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>46</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2384041959.014532</v>
       </c>
     </row>
     <row r="47">
@@ -2020,28 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4910303969.684514</v>
+        <v>4650453382.294789</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1280477160207793</v>
+        <v>0.1582276767796788</v>
       </c>
       <c r="G47" t="n">
-        <v>0.03808004964607802</v>
+        <v>0.03717143091151202</v>
       </c>
       <c r="H47" t="b">
         <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>34</v>
-      </c>
-      <c r="J47" t="n">
-        <v>2455152035.487778</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3803583886.564814</v>
+        <v>3085324261.021246</v>
       </c>
       <c r="F48" t="n">
-        <v>0.08311909061733791</v>
+        <v>0.09603178439769852</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03787662614307577</v>
+        <v>0.0319033425406268</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>43</v>
-      </c>
-      <c r="J48" t="n">
-        <v>1901791989.041909</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1514178585.699844</v>
+        <v>1321204155.829561</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1180591257030764</v>
+        <v>0.1524290379501878</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03384140110056971</v>
+        <v>0.03607253660286651</v>
       </c>
       <c r="H49" t="b">
-        <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>757089322.6300163</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
@@ -2122,28 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3824292868.929336</v>
+        <v>3145618752.771735</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1088322420142309</v>
+        <v>0.1619181417227886</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04334726127834287</v>
+        <v>0.05048629136789812</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>43</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1912146435.619288</v>
       </c>
     </row>
     <row r="51">
@@ -2156,28 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1546942224.210434</v>
+        <v>986871659.0439304</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1602566858801277</v>
+        <v>0.1677955970506537</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03788299995528645</v>
+        <v>0.04678305461281051</v>
       </c>
       <c r="H51" t="b">
-        <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>773471107.3629483</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52">
@@ -2190,28 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4195067076.520113</v>
+        <v>3413623752.678636</v>
       </c>
       <c r="F52" t="n">
-        <v>0.09450209454300415</v>
+        <v>0.1372371081724688</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04267409256630934</v>
+        <v>0.05554912215134547</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>52</v>
-      </c>
-      <c r="J52" t="n">
-        <v>2097533583.209715</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3213114775.654562</v>
+        <v>3422061893.996989</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1851498012322966</v>
+        <v>0.1972593267881516</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02233935959255687</v>
+        <v>0.02348422636904735</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>36</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1606557405.516547</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4249861381.87719</v>
+        <v>3302000634.80336</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1129422575116822</v>
+        <v>0.1273997921972951</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03448768745029231</v>
+        <v>0.03613140000274401</v>
       </c>
       <c r="H54" t="b">
         <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>44</v>
-      </c>
-      <c r="J54" t="n">
-        <v>2124930774.558884</v>
       </c>
     </row>
     <row r="55">
@@ -2292,28 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3784586658.336387</v>
+        <v>4524661653.786837</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2182271241113173</v>
+        <v>0.1415381109466952</v>
       </c>
       <c r="G55" t="n">
-        <v>0.03236029642609976</v>
+        <v>0.02239866004037104</v>
       </c>
       <c r="H55" t="b">
-        <v>1</v>
-      </c>
-      <c r="I55" t="n">
-        <v>32</v>
-      </c>
-      <c r="J55" t="n">
-        <v>1892293294.505413</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
@@ -2326,28 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1725363643.315016</v>
+        <v>1670401764.786055</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1571418648688456</v>
+        <v>0.1354422240179877</v>
       </c>
       <c r="G56" t="n">
-        <v>0.03789236575295382</v>
+        <v>0.04237161722847808</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>862681830.4704995</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3950226302.413417</v>
+        <v>4098638789.463564</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1798521402770767</v>
+        <v>0.173824607115099</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02214376850829945</v>
+        <v>0.01850680562657063</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>40</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1975113235.3499</v>
       </c>
     </row>
     <row r="58">
@@ -2400,22 +2054,16 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1667580744.600871</v>
+        <v>1594669250.112715</v>
       </c>
       <c r="F58" t="n">
-        <v>0.150301095588649</v>
+        <v>0.1317648343811723</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02439509090629558</v>
+        <v>0.03207673126279133</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>833790388.1028404</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3875376381.99747</v>
+        <v>5226060237.909001</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1135943732869591</v>
+        <v>0.07895619689365511</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03478454337851727</v>
+        <v>0.04126350225834386</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>35</v>
-      </c>
-      <c r="J59" t="n">
-        <v>1937688172.901458</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2942549917.404128</v>
+        <v>2621305104.789175</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1576812462148172</v>
+        <v>0.1721594072404228</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02054200240238756</v>
+        <v>0.03127551439553204</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>39</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1471275022.981026</v>
       </c>
     </row>
     <row r="61">
@@ -2496,28 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3153412231.709954</v>
+        <v>2804751947.09054</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1609417170948043</v>
+        <v>0.1329512024695872</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02101889154347369</v>
+        <v>0.02626676389607499</v>
       </c>
       <c r="H61" t="b">
-        <v>1</v>
-      </c>
-      <c r="I61" t="n">
-        <v>42</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1576706081.803858</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1585461956.702933</v>
+        <v>1723873835.753074</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1583141091429308</v>
+        <v>0.1473484245043768</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03270581495154011</v>
+        <v>0.04456274230117278</v>
       </c>
       <c r="H62" t="b">
-        <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>792730974.2034186</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63">
@@ -2564,28 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5072585946.524693</v>
+        <v>4643224312.196034</v>
       </c>
       <c r="F63" t="n">
-        <v>0.078440614014767</v>
+        <v>0.08814656052398695</v>
       </c>
       <c r="G63" t="n">
-        <v>0.02922414446451685</v>
+        <v>0.03385674730488929</v>
       </c>
       <c r="H63" t="b">
         <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>37</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2536292987.722924</v>
       </c>
     </row>
     <row r="64">
@@ -2598,28 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5284355667.497622</v>
+        <v>4318001527.967569</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1628815023974905</v>
+        <v>0.1922950999014222</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03043733501689452</v>
+        <v>0.02279250302394403</v>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
-      </c>
-      <c r="I64" t="n">
-        <v>39</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2642177959.900507</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5575222483.520165</v>
+        <v>4545014453.90673</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1378514652755744</v>
+        <v>0.1184450532798382</v>
       </c>
       <c r="G65" t="n">
-        <v>0.0240681798498688</v>
+        <v>0.02778903578769266</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
-      </c>
-      <c r="I65" t="n">
-        <v>45</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2787611166.305391</v>
       </c>
     </row>
     <row r="66">
@@ -2666,28 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4803292318.629188</v>
+        <v>5223068643.022716</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1094256853852305</v>
+        <v>0.1099376728459822</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04175471435549049</v>
+        <v>0.03120746189226877</v>
       </c>
       <c r="H66" t="b">
         <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>37</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2401646175.872192</v>
       </c>
     </row>
     <row r="67">
@@ -2700,28 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2285487336.601614</v>
+        <v>3372347144.910452</v>
       </c>
       <c r="F67" t="n">
-        <v>0.08985487694328143</v>
+        <v>0.07336430371211272</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03282310226989472</v>
+        <v>0.03754258624254165</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>39</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1142743747.022978</v>
       </c>
     </row>
     <row r="68">
@@ -2734,28 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>3928189146.452439</v>
+        <v>3871114597.335981</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1452064009229911</v>
+        <v>0.1446498043301072</v>
       </c>
       <c r="G68" t="n">
-        <v>0.0486363580551645</v>
+        <v>0.04470322523339668</v>
       </c>
       <c r="H68" t="b">
         <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>40</v>
-      </c>
-      <c r="J68" t="n">
-        <v>1964094564.623418</v>
       </c>
     </row>
     <row r="69">
@@ -2768,28 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2096248131.651604</v>
+        <v>1543881414.325519</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1220242965839616</v>
+        <v>0.1635037600520329</v>
       </c>
       <c r="G69" t="n">
-        <v>0.03953060986624071</v>
+        <v>0.0425760641310216</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>1048124083.158709</v>
       </c>
     </row>
     <row r="70">
@@ -2802,28 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3432121283.563002</v>
+        <v>2393597354.286645</v>
       </c>
       <c r="F70" t="n">
-        <v>0.07968866350506024</v>
+        <v>0.07515890523659501</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04742564486921724</v>
+        <v>0.03781237472660765</v>
       </c>
       <c r="H70" t="b">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>37</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1716060646.815793</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -2842,22 +2418,16 @@
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4242170684.733029</v>
+        <v>5539607226.347859</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1473221660916887</v>
+        <v>0.1819776062568207</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02311685446729264</v>
+        <v>0.0260716979878692</v>
       </c>
       <c r="H71" t="b">
         <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>46</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2121085391.44697</v>
       </c>
     </row>
     <row r="72">
@@ -2870,28 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2282608036.990757</v>
+        <v>1975628006.680277</v>
       </c>
       <c r="F72" t="n">
-        <v>0.1010547456821247</v>
+        <v>0.0971068052034785</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04870729452234488</v>
+        <v>0.03729901245666997</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>1141303919.206814</v>
       </c>
     </row>
     <row r="73">
@@ -2910,22 +2474,16 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3576461214.508417</v>
+        <v>3374964208.798126</v>
       </c>
       <c r="F73" t="n">
-        <v>0.09303611758303156</v>
+        <v>0.07106089113237032</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04597436517971418</v>
+        <v>0.04069241387471386</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>48</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1788230550.406798</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2549197629.605097</v>
+        <v>4005962055.623155</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1343868272092777</v>
+        <v>0.1550468767503047</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03108179497967995</v>
+        <v>0.02245066696215338</v>
       </c>
       <c r="H74" t="b">
-        <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>43</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1274598919.07968</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75">
@@ -2978,22 +2530,16 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1551227702.054026</v>
+        <v>1757503235.412853</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1594681545087385</v>
+        <v>0.1183335595001285</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02886405790006941</v>
+        <v>0.02774618590356819</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>775613857.2174612</v>
       </c>
     </row>
     <row r="76">
@@ -3012,22 +2558,16 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3953050626.007456</v>
+        <v>3977167933.716398</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1244595577628975</v>
+        <v>0.1008793512016909</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03388246109605258</v>
+        <v>0.03314420165285412</v>
       </c>
       <c r="H76" t="b">
         <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>28</v>
-      </c>
-      <c r="J76" t="n">
-        <v>1976525295.712517</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1825686349.02328</v>
+        <v>2222176833.00438</v>
       </c>
       <c r="F77" t="n">
-        <v>0.15386697940982</v>
+        <v>0.1805404350665739</v>
       </c>
       <c r="G77" t="n">
-        <v>0.03134719519458037</v>
+        <v>0.02837765593889959</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>912843210.2213594</v>
       </c>
     </row>
     <row r="78">
@@ -3080,22 +2614,16 @@
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4412937148.748274</v>
+        <v>3031717423.458348</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1017870032883803</v>
+        <v>0.1336007723067507</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05656757830034669</v>
+        <v>0.03814816611248224</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
-      </c>
-      <c r="I78" t="n">
-        <v>44</v>
-      </c>
-      <c r="J78" t="n">
-        <v>2206468510.516001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
@@ -3108,28 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1532423511.92817</v>
+        <v>1671194648.738155</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1711449887045521</v>
+        <v>0.1774638558546848</v>
       </c>
       <c r="G79" t="n">
-        <v>0.0382138278676562</v>
+        <v>0.03076459807982942</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>766211795.7612906</v>
       </c>
     </row>
     <row r="80">
@@ -3142,28 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4795951049.395515</v>
+        <v>5136560674.11839</v>
       </c>
       <c r="F80" t="n">
-        <v>0.0828878478618737</v>
+        <v>0.08238514375071052</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03783360148661933</v>
+        <v>0.0281026616447718</v>
       </c>
       <c r="H80" t="b">
         <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>26</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2397975563.704998</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4127881674.404798</v>
+        <v>4655136017.183465</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1339769958407235</v>
+        <v>0.1111008045823239</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02782037876594667</v>
+        <v>0.03170995819166933</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>30</v>
-      </c>
-      <c r="J81" t="n">
-        <v>2063940805.126489</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4544117740.089619</v>
+        <v>4898080646.790966</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1660302746801524</v>
+        <v>0.1758072434139876</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02369734593878852</v>
+        <v>0.01941415174716769</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>46</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2272058879.407063</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83">
@@ -3244,28 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1827243078.724434</v>
+        <v>1643992310.802084</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1033867155354357</v>
+        <v>0.1356304454586807</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03019523691426411</v>
+        <v>0.03857954459989651</v>
       </c>
       <c r="H83" t="b">
-        <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="n">
-        <v>913621503.1189741</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2574010475.859161</v>
+        <v>1775625561.604949</v>
       </c>
       <c r="F84" t="n">
-        <v>0.08914600227771417</v>
+        <v>0.09006093255883649</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04536526898483198</v>
+        <v>0.04013715268998452</v>
       </c>
       <c r="H84" t="b">
-        <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>2</v>
-      </c>
-      <c r="J84" t="n">
-        <v>1287005158.80342</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85">
@@ -3312,28 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2695506990.869199</v>
+        <v>3671049572.152036</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1276042836637377</v>
+        <v>0.1170472451065818</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04528266515991965</v>
+        <v>0.04655751067446574</v>
       </c>
       <c r="H85" t="b">
-        <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>48</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1347753521.912919</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86">
@@ -3346,28 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2669724858.312443</v>
+        <v>2046022763.619991</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1676474058731246</v>
+        <v>0.1410269169826924</v>
       </c>
       <c r="G86" t="n">
-        <v>0.0221830312437965</v>
+        <v>0.02419708116857528</v>
       </c>
       <c r="H86" t="b">
-        <v>1</v>
-      </c>
-      <c r="I86" t="n">
-        <v>13</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1334862549.836583</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
@@ -3386,22 +2866,16 @@
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1257799963.096962</v>
+        <v>1226579291.942742</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1429060939345609</v>
+        <v>0.1292538922809961</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03064837318528569</v>
+        <v>0.02974367290490447</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>628900051.8907889</v>
       </c>
     </row>
     <row r="88">
@@ -3414,28 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2260456375.600075</v>
+        <v>3636064043.615657</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1662359842310892</v>
+        <v>0.1260417704883328</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03516433609585973</v>
+        <v>0.02695320291018983</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>50</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1130228145.110205</v>
       </c>
     </row>
     <row r="89">
@@ -3448,28 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2550137846.468786</v>
+        <v>3255138762.687471</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1010553716034833</v>
+        <v>0.1088019199508445</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03531700178639012</v>
+        <v>0.03665829714716085</v>
       </c>
       <c r="H89" t="b">
-        <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>45</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1275068994.269572</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90">
@@ -3488,22 +2950,16 @@
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1973689689.128888</v>
+        <v>1637524541.654663</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1078974934523772</v>
+        <v>0.09835735705433252</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05501982736073376</v>
+        <v>0.05375898252081428</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>986844909.926129</v>
       </c>
     </row>
     <row r="91">
@@ -3516,28 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1416307897.178526</v>
+        <v>1623667506.664817</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1862980994983168</v>
+        <v>0.140639397263922</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05102573067888229</v>
+        <v>0.0552857606365568</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>708153998.6041204</v>
       </c>
     </row>
     <row r="92">
@@ -3556,22 +3006,16 @@
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2101219364.235787</v>
+        <v>2208695741.217848</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1074922892606142</v>
+        <v>0.1089919214121304</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04458935563782597</v>
+        <v>0.03872673613763859</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>30</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1050609635.900148</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3996104443.597517</v>
+        <v>3618324067.868474</v>
       </c>
       <c r="F93" t="n">
-        <v>0.09121663226582792</v>
+        <v>0.09190255061632845</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03729186719586603</v>
+        <v>0.03842410417484143</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
-      </c>
-      <c r="I93" t="n">
-        <v>39</v>
-      </c>
-      <c r="J93" t="n">
-        <v>1998052222.619208</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94">
@@ -3618,28 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2510101252.522954</v>
+        <v>1627862674.363694</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1628830735879396</v>
+        <v>0.1480786797277418</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03890827661316174</v>
+        <v>0.03000559766336776</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="n">
-        <v>1255050690.945888</v>
       </c>
     </row>
     <row r="95">
@@ -3658,22 +3090,16 @@
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2853437024.337905</v>
+        <v>2241456994.358526</v>
       </c>
       <c r="F95" t="n">
-        <v>0.09814976301035984</v>
+        <v>0.09150103004244127</v>
       </c>
       <c r="G95" t="n">
-        <v>0.05276523484796177</v>
+        <v>0.04355971648266316</v>
       </c>
       <c r="H95" t="b">
-        <v>1</v>
-      </c>
-      <c r="I95" t="n">
-        <v>30</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1426718522.530555</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
@@ -3692,22 +3118,16 @@
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1623040140.155171</v>
+        <v>1623249087.643051</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1021557645120683</v>
+        <v>0.1062842365986732</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04175921670227971</v>
+        <v>0.03007268701754682</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>811520097.2553872</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>5265877745.82345</v>
+        <v>5096875886.540041</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1682572225690438</v>
+        <v>0.1449411397860768</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02438073157978687</v>
+        <v>0.02638077363492851</v>
       </c>
       <c r="H97" t="b">
         <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>43</v>
-      </c>
-      <c r="J97" t="n">
-        <v>2632939031.04077</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3203222791.194848</v>
+        <v>3799320949.708937</v>
       </c>
       <c r="F98" t="n">
-        <v>0.08667363345623291</v>
+        <v>0.106690782639042</v>
       </c>
       <c r="G98" t="n">
-        <v>0.0239747416666205</v>
+        <v>0.02778946820681034</v>
       </c>
       <c r="H98" t="b">
         <v>1</v>
-      </c>
-      <c r="I98" t="n">
-        <v>33</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1601611394.031627</v>
       </c>
     </row>
     <row r="99">
@@ -3788,28 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2611437757.893463</v>
+        <v>2394976711.496459</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1286001003835023</v>
+        <v>0.1161764587065097</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02272817763585908</v>
+        <v>0.03451868623414395</v>
       </c>
       <c r="H99" t="b">
-        <v>1</v>
-      </c>
-      <c r="I99" t="n">
-        <v>38</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1305718836.698256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -3828,22 +3230,16 @@
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4343543620.51289</v>
+        <v>3507445952.516757</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1503632112989513</v>
+        <v>0.1683066485854096</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02227882212267146</v>
+        <v>0.01844686742318231</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>39</v>
-      </c>
-      <c r="J100" t="n">
-        <v>2171771908.297405</v>
       </c>
     </row>
     <row r="101">
@@ -3856,28 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2412493928.940422</v>
+        <v>2359116909.056664</v>
       </c>
       <c r="F101" t="n">
-        <v>0.20509758651642</v>
+        <v>0.2165579537528089</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04888674931651822</v>
+        <v>0.05496011452306245</v>
       </c>
       <c r="H101" t="b">
-        <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>53</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1206246975.810646</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_126.xlsx
+++ b/output/fit_clients/fit_round_126.xlsx
@@ -480,19 +480,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1803442063.712147</v>
+        <v>1553770476.66714</v>
       </c>
       <c r="F2" t="n">
-        <v>0.09940383492771425</v>
+        <v>0.09610311090959012</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04201327714056027</v>
+        <v>0.03159819473533924</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -514,13 +514,13 @@
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1929812734.653479</v>
+        <v>2068137530.843496</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1112624577313669</v>
+        <v>0.1519099875967036</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04744799899757764</v>
+        <v>0.037990376346402</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -536,19 +536,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3657105528.953941</v>
+        <v>4358465664.101298</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1543442185813497</v>
+        <v>0.112529939957795</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03054888301306828</v>
+        <v>0.02525039059101144</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -564,19 +564,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>4058081123.104686</v>
+        <v>3085518556.085054</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08532292104479008</v>
+        <v>0.09309063585022329</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04881441981793447</v>
+        <v>0.04535450643407826</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -592,22 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2642986932.255656</v>
+        <v>2608809776.159655</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1203606718025627</v>
+        <v>0.1148659934577797</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04660233996770818</v>
+        <v>0.04349091457101539</v>
       </c>
       <c r="H6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -626,13 +626,13 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2777023166.606936</v>
+        <v>2262679458.534657</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0890127128401775</v>
+        <v>0.07021647050592607</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03303369188397461</v>
+        <v>0.04802806777279441</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -648,19 +648,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3291143275.830318</v>
+        <v>3202815545.511721</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1871988647636554</v>
+        <v>0.1572662812356974</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02832388024056644</v>
+        <v>0.02962482700617909</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -682,13 +682,13 @@
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2106186953.600816</v>
+        <v>1923623517.835591</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1611454650363257</v>
+        <v>0.1690200931895059</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03612132563552872</v>
+        <v>0.03527468354433649</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -704,22 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>3653592329.186531</v>
+        <v>5760810153.220137</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1841283631443159</v>
+        <v>0.180032523489904</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04120924724220682</v>
+        <v>0.05114218346348113</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -738,13 +738,13 @@
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>4216333439.603521</v>
+        <v>4230077545.110119</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1765113757657339</v>
+        <v>0.1797129572038331</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04678334847759621</v>
+        <v>0.03011560518867931</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -760,19 +760,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2482595666.369868</v>
+        <v>2337904571.192096</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1638404985282849</v>
+        <v>0.1318250192665125</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03304787934183522</v>
+        <v>0.04534791297507602</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -788,19 +788,19 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4227414134.205034</v>
+        <v>3397891030.198002</v>
       </c>
       <c r="F13" t="n">
-        <v>0.08155246671227064</v>
+        <v>0.08794919591985545</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02390259020185529</v>
+        <v>0.02100059190929435</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
@@ -822,16 +822,16 @@
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2757224717.97159</v>
+        <v>3597534935.085181</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1555357906397821</v>
+        <v>0.1461734927727158</v>
       </c>
       <c r="G14" t="n">
-        <v>0.02782484239769274</v>
+        <v>0.03339738591056248</v>
       </c>
       <c r="H14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -850,13 +850,13 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1437161041.610888</v>
+        <v>1646707430.659158</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0739185112700841</v>
+        <v>0.1066131792491068</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03789943398505129</v>
+        <v>0.03727509693894319</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -878,13 +878,13 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2197400733.422173</v>
+        <v>2280342842.466061</v>
       </c>
       <c r="F16" t="n">
-        <v>0.08386130057122189</v>
+        <v>0.08778983983839891</v>
       </c>
       <c r="G16" t="n">
-        <v>0.05056338629834303</v>
+        <v>0.03977614416110496</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -906,13 +906,13 @@
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3888030428.701553</v>
+        <v>3360524834.871068</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1514021247388561</v>
+        <v>0.132922305774061</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03263202231663683</v>
+        <v>0.04575568770976624</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -928,19 +928,19 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3237930415.709915</v>
+        <v>3205171288.949168</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1170006801261081</v>
+        <v>0.1699727611772555</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02995637398301258</v>
+        <v>0.02787231323003344</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -962,13 +962,13 @@
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1125933900.051297</v>
+        <v>986911309.917835</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1856075074889294</v>
+        <v>0.1795446003546234</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02046094781501672</v>
+        <v>0.02053309009891476</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -990,16 +990,16 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2475142218.058081</v>
+        <v>1863168462.967954</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1603179465813807</v>
+        <v>0.1308706109459144</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02043165972967887</v>
+        <v>0.0200521475761399</v>
       </c>
       <c r="H20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1012,19 +1012,19 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1976465006.995646</v>
+        <v>2568531699.57273</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07886948803153246</v>
+        <v>0.08588937929703354</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03121332233337528</v>
+        <v>0.03194313271332496</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1040,19 +1040,19 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2765372085.866854</v>
+        <v>3272172179.155459</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1425970200082509</v>
+        <v>0.101621389871264</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04113467337991902</v>
+        <v>0.05671177278633582</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1068,19 +1068,19 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1557258637.4853</v>
+        <v>977367816.5444487</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1335262592140764</v>
+        <v>0.1280296795455727</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03390380806716787</v>
+        <v>0.04093001402935227</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1096,22 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3619102176.730822</v>
+        <v>3619281828.248074</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1206899804454662</v>
+        <v>0.1197790976807342</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02281139165575371</v>
+        <v>0.02942978288602406</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1130,13 +1130,13 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1067794283.296988</v>
+        <v>979256461.7242055</v>
       </c>
       <c r="F25" t="n">
-        <v>0.09375769392242918</v>
+        <v>0.1182739173915189</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02846976186059876</v>
+        <v>0.02513690672124492</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1152,19 +1152,19 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1070962803.815587</v>
+        <v>1122319864.809514</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1014970857374068</v>
+        <v>0.1078277055634837</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02546448600691975</v>
+        <v>0.0292883788500825</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1180,22 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4191612404.698957</v>
+        <v>4717609976.566409</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1575476092250577</v>
+        <v>0.1483864867798233</v>
       </c>
       <c r="G27" t="n">
-        <v>0.0236052035353919</v>
+        <v>0.02685603285180105</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1208,22 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2570339202.31615</v>
+        <v>3434229584.557279</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1131722649608059</v>
+        <v>0.09628028968704593</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03439257248100853</v>
+        <v>0.04636521223546743</v>
       </c>
       <c r="H28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1236,22 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5261306148.943342</v>
+        <v>4296182928.326666</v>
       </c>
       <c r="F29" t="n">
-        <v>0.09670077743645858</v>
+        <v>0.1374184334282544</v>
       </c>
       <c r="G29" t="n">
-        <v>0.0364505380141949</v>
+        <v>0.04503533157923702</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1264,19 +1264,19 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2112433835.6962</v>
+        <v>1536481675.470192</v>
       </c>
       <c r="F30" t="n">
-        <v>0.08530034914484709</v>
+        <v>0.1106082954265536</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03218034140228901</v>
+        <v>0.0296805414047767</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1298,16 +1298,16 @@
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1262648083.616352</v>
+        <v>1195200567.750525</v>
       </c>
       <c r="F31" t="n">
-        <v>0.09085190978811572</v>
+        <v>0.08701258312584599</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03578300575772178</v>
+        <v>0.04409023714383566</v>
       </c>
       <c r="H31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -1320,19 +1320,19 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1691699147.669967</v>
+        <v>1645664383.277173</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1184903225069976</v>
+        <v>0.07554276261689126</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03111306849242325</v>
+        <v>0.03647578170024552</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1354,16 +1354,16 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2434937891.406663</v>
+        <v>2141426761.189122</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1609323155873736</v>
+        <v>0.14598250200641</v>
       </c>
       <c r="G33" t="n">
-        <v>0.03911941488714601</v>
+        <v>0.05329491812693604</v>
       </c>
       <c r="H33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1376,19 +1376,19 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1343218111.654916</v>
+        <v>1094016547.946168</v>
       </c>
       <c r="F34" t="n">
-        <v>0.08609748266794455</v>
+        <v>0.10966519611518</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01845712983396521</v>
+        <v>0.02637494663586546</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1404,22 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1291554735.182279</v>
+        <v>1033829533.764085</v>
       </c>
       <c r="F35" t="n">
-        <v>0.09332740732767705</v>
+        <v>0.09686881960490934</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04385928691588556</v>
+        <v>0.03744029253651738</v>
       </c>
       <c r="H35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -1432,19 +1432,19 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2321761261.79947</v>
+        <v>2026523124.484821</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1098297146311594</v>
+        <v>0.1344631854079929</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02396842448149732</v>
+        <v>0.01874618100600861</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1460,19 +1460,19 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>1893000710.553454</v>
+        <v>2113994546.418023</v>
       </c>
       <c r="F37" t="n">
-        <v>0.07527173136632496</v>
+        <v>0.0844237033153489</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03965580467701293</v>
+        <v>0.04228225217593919</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1488,19 +1488,19 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>2059302949.956773</v>
+        <v>1873420408.299972</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1000874997872456</v>
+        <v>0.08803456529215767</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02778764438952277</v>
+        <v>0.03400356905584065</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1516,19 +1516,19 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1836424536.506798</v>
+        <v>2081563759.575274</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1264402251234354</v>
+        <v>0.1538038360335418</v>
       </c>
       <c r="G39" t="n">
-        <v>0.03118592258115834</v>
+        <v>0.02926160828458226</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1544,19 +1544,19 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1190792925.628174</v>
+        <v>1521943381.028567</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1147143020871061</v>
+        <v>0.1198314287008489</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04224195310371699</v>
+        <v>0.04209155413331852</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1572,19 +1572,19 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2870404968.096421</v>
+        <v>2093700062.348035</v>
       </c>
       <c r="F41" t="n">
-        <v>0.162488383462815</v>
+        <v>0.1444082564323736</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03148288771087896</v>
+        <v>0.04296971815897409</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1606,13 +1606,13 @@
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>2765472382.485403</v>
+        <v>3840291741.00687</v>
       </c>
       <c r="F42" t="n">
-        <v>0.09827603756925109</v>
+        <v>0.1119282362664675</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03984151291265</v>
+        <v>0.04264504461098516</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1628,19 +1628,19 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2389439315.379897</v>
+        <v>1985350794.737883</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1321469128107943</v>
+        <v>0.1784476438230191</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01705076204648822</v>
+        <v>0.02461558175911413</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1656,19 +1656,19 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1638320384.467202</v>
+        <v>2364877771.361098</v>
       </c>
       <c r="F44" t="n">
-        <v>0.09133734732605005</v>
+        <v>0.07103245477707433</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03253852174860675</v>
+        <v>0.02793759279073216</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1684,19 +1684,19 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2444093853.759223</v>
+        <v>1633479776.510072</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1265558376511025</v>
+        <v>0.1215993244162355</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04809254690887594</v>
+        <v>0.04837453359712643</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1718,16 +1718,16 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4062834133.959774</v>
+        <v>4359998409.199356</v>
       </c>
       <c r="F46" t="n">
-        <v>0.17499680481826</v>
+        <v>0.1731595195117787</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05283672808356072</v>
+        <v>0.04212599144183717</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1746,16 +1746,16 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4650453382.294789</v>
+        <v>4652874404.412971</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1582276767796788</v>
+        <v>0.1649135095803247</v>
       </c>
       <c r="G47" t="n">
-        <v>0.03717143091151202</v>
+        <v>0.04006380256665269</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1768,19 +1768,19 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3085324261.021246</v>
+        <v>4297897050.449153</v>
       </c>
       <c r="F48" t="n">
-        <v>0.09603178439769852</v>
+        <v>0.06692063966028657</v>
       </c>
       <c r="G48" t="n">
-        <v>0.0319033425406268</v>
+        <v>0.03547002327665961</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1796,22 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1321204155.829561</v>
+        <v>1934385939.741223</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1524290379501878</v>
+        <v>0.1620557728649333</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03607253660286651</v>
+        <v>0.04083214202594726</v>
       </c>
       <c r="H49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -1824,19 +1824,19 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3145618752.771735</v>
+        <v>3128194392.861132</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1619181417227886</v>
+        <v>0.1457145236515418</v>
       </c>
       <c r="G50" t="n">
-        <v>0.05048629136789812</v>
+        <v>0.04543836863359457</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1858,16 +1858,16 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>986871659.0439304</v>
+        <v>1388456750.477895</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1677955970506537</v>
+        <v>0.1320926556049137</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04678305461281051</v>
+        <v>0.0419553621190522</v>
       </c>
       <c r="H51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -1880,19 +1880,19 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3413623752.678636</v>
+        <v>5282598996.548702</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1372371081724688</v>
+        <v>0.124411990223361</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05554912215134547</v>
+        <v>0.0456232782936016</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1908,19 +1908,19 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3422061893.996989</v>
+        <v>3672178821.787169</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1972593267881516</v>
+        <v>0.1553292713173008</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02348422636904735</v>
+        <v>0.03145665360184171</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1936,22 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3302000634.80336</v>
+        <v>3063687139.846312</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1273997921972951</v>
+        <v>0.140274206211621</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03613140000274401</v>
+        <v>0.03407712340335545</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1970,16 +1970,16 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4524661653.786837</v>
+        <v>3707611503.094367</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1415381109466952</v>
+        <v>0.1804425483005039</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02239866004037104</v>
+        <v>0.02833283020494836</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1992,19 +1992,19 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1670401764.786055</v>
+        <v>1707372031.164766</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1354422240179877</v>
+        <v>0.1643856341580798</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04237161722847808</v>
+        <v>0.05111568040422446</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2020,19 +2020,19 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4098638789.463564</v>
+        <v>4104455855.120771</v>
       </c>
       <c r="F57" t="n">
-        <v>0.173824607115099</v>
+        <v>0.116736777216503</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01850680562657063</v>
+        <v>0.01922163443099192</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2054,13 +2054,13 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1594669250.112715</v>
+        <v>1795689737.016399</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1317648343811723</v>
+        <v>0.1922018296130262</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03207673126279133</v>
+        <v>0.02479971044819667</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2082,13 +2082,13 @@
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>5226060237.909001</v>
+        <v>5410984559.712533</v>
       </c>
       <c r="F59" t="n">
-        <v>0.07895619689365511</v>
+        <v>0.1272833451944076</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04126350225834386</v>
+        <v>0.04647087659851448</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2104,19 +2104,19 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2621305104.789175</v>
+        <v>3781575787.924156</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1721594072404228</v>
+        <v>0.2024946979324758</v>
       </c>
       <c r="G60" t="n">
-        <v>0.03127551439553204</v>
+        <v>0.02398530193988895</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2132,19 +2132,19 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2804751947.09054</v>
+        <v>2951402474.969675</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1329512024695872</v>
+        <v>0.1765586675769484</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02626676389607499</v>
+        <v>0.02008845807498378</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2166,16 +2166,16 @@
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1723873835.753074</v>
+        <v>1587157284.992725</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1473484245043768</v>
+        <v>0.1633323277967229</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04456274230117278</v>
+        <v>0.04904656808495205</v>
       </c>
       <c r="H62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
@@ -2194,16 +2194,16 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4643224312.196034</v>
+        <v>3400114160.509745</v>
       </c>
       <c r="F63" t="n">
-        <v>0.08814656052398695</v>
+        <v>0.06577439169855626</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03385674730488929</v>
+        <v>0.0470748737003323</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4318001527.967569</v>
+        <v>5442468982.363598</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1922950999014222</v>
+        <v>0.1739788611475094</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02279250302394403</v>
+        <v>0.02768484807070212</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2244,19 +2244,19 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4545014453.90673</v>
+        <v>5409742697.149566</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1184450532798382</v>
+        <v>0.1370358831396671</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02778903578769266</v>
+        <v>0.02833933268194628</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
@@ -2272,22 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5223068643.022716</v>
+        <v>3918332855.935094</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1099376728459822</v>
+        <v>0.1069834134351425</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03120746189226877</v>
+        <v>0.03228792890427674</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2306,13 +2306,13 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3372347144.910452</v>
+        <v>3285558423.989485</v>
       </c>
       <c r="F67" t="n">
-        <v>0.07336430371211272</v>
+        <v>0.06516644926452882</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03754258624254165</v>
+        <v>0.03171796370644295</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2328,22 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>3871114597.335981</v>
+        <v>4698693425.542312</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1446498043301072</v>
+        <v>0.1383761142953965</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04470322523339668</v>
+        <v>0.03228483336071868</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2356,19 +2356,19 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1543881414.325519</v>
+        <v>2304513223.311582</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1635037600520329</v>
+        <v>0.1739542221700794</v>
       </c>
       <c r="G69" t="n">
-        <v>0.0425760641310216</v>
+        <v>0.05494459456923984</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2384,19 +2384,19 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2393597354.286645</v>
+        <v>2678296989.381632</v>
       </c>
       <c r="F70" t="n">
-        <v>0.07515890523659501</v>
+        <v>0.07165099953347566</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03781237472660765</v>
+        <v>0.0460209705951625</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2418,16 +2418,16 @@
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5539607226.347859</v>
+        <v>3489958517.868196</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1819776062568207</v>
+        <v>0.149355628700614</v>
       </c>
       <c r="G71" t="n">
-        <v>0.0260716979878692</v>
+        <v>0.02281780150562325</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2440,19 +2440,19 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1975628006.680277</v>
+        <v>1991962023.879693</v>
       </c>
       <c r="F72" t="n">
-        <v>0.0971068052034785</v>
+        <v>0.0669760703495699</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03729901245666997</v>
+        <v>0.03635144211531049</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2468,19 +2468,19 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3374964208.798126</v>
+        <v>3596256147.882234</v>
       </c>
       <c r="F73" t="n">
-        <v>0.07106089113237032</v>
+        <v>0.07672336935863333</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04069241387471386</v>
+        <v>0.05262238681888105</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2496,22 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>4005962055.623155</v>
+        <v>3423337369.542165</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1550468767503047</v>
+        <v>0.1745293982522929</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02245066696215338</v>
+        <v>0.02975812428810605</v>
       </c>
       <c r="H74" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -2530,13 +2530,13 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1757503235.412853</v>
+        <v>1996808225.350426</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1183335595001285</v>
+        <v>0.1444174533608072</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02774618590356819</v>
+        <v>0.03501491270317893</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2558,16 +2558,16 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3977167933.716398</v>
+        <v>5298551382.845653</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1008793512016909</v>
+        <v>0.1169897419239857</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03314420165285412</v>
+        <v>0.03174404930517701</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2586,13 +2586,13 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2222176833.00438</v>
+        <v>2264439738.699465</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1805404350665739</v>
+        <v>0.128515385931942</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02837765593889959</v>
+        <v>0.02389845941949196</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2614,16 +2614,16 @@
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3031717423.458348</v>
+        <v>4282749009.993819</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1336007723067507</v>
+        <v>0.1002837331676744</v>
       </c>
       <c r="G78" t="n">
-        <v>0.03814816611248224</v>
+        <v>0.03551932311003746</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2636,19 +2636,19 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1671194648.738155</v>
+        <v>1249808154.480173</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1774638558546848</v>
+        <v>0.1363161011999159</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03076459807982942</v>
+        <v>0.02646671497934078</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2664,22 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5136560674.11839</v>
+        <v>4803388145.750813</v>
       </c>
       <c r="F80" t="n">
-        <v>0.08238514375071052</v>
+        <v>0.07736230909366033</v>
       </c>
       <c r="G80" t="n">
-        <v>0.0281026616447718</v>
+        <v>0.03706513919534338</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2692,19 +2692,19 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4655136017.183465</v>
+        <v>3715925763.477707</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1111008045823239</v>
+        <v>0.09390620422359544</v>
       </c>
       <c r="G81" t="n">
-        <v>0.03170995819166933</v>
+        <v>0.0201355854332133</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2726,16 +2726,16 @@
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4898080646.790966</v>
+        <v>5490168727.718168</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1758072434139876</v>
+        <v>0.1643975584136806</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01941415174716769</v>
+        <v>0.02491866617404267</v>
       </c>
       <c r="H82" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -2748,22 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1643992310.802084</v>
+        <v>2194004685.201494</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1356304454586807</v>
+        <v>0.09670093040163026</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03857954459989651</v>
+        <v>0.03262860215564747</v>
       </c>
       <c r="H83" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84">
@@ -2782,16 +2782,16 @@
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1775625561.604949</v>
+        <v>2605903971.510225</v>
       </c>
       <c r="F84" t="n">
-        <v>0.09006093255883649</v>
+        <v>0.08143215391727213</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04013715268998452</v>
+        <v>0.03956886967507935</v>
       </c>
       <c r="H84" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85">
@@ -2804,22 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3671049572.152036</v>
+        <v>2360516618.76661</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1170472451065818</v>
+        <v>0.138858690329088</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04655751067446574</v>
+        <v>0.04082727718869873</v>
       </c>
       <c r="H85" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -2838,13 +2838,13 @@
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2046022763.619991</v>
+        <v>2561171327.46129</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1410269169826924</v>
+        <v>0.1460129438666827</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02419708116857528</v>
+        <v>0.02724530647219011</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2860,19 +2860,19 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1226579291.942742</v>
+        <v>1282457520.26876</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1292538922809961</v>
+        <v>0.1847992014130058</v>
       </c>
       <c r="G87" t="n">
-        <v>0.02974367290490447</v>
+        <v>0.03760572632779613</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2888,19 +2888,19 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3636064043.615657</v>
+        <v>3274760145.213447</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1260417704883328</v>
+        <v>0.1348194909535843</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02695320291018983</v>
+        <v>0.03905041944113152</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2916,22 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3255138762.687471</v>
+        <v>2796217123.660525</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1088019199508445</v>
+        <v>0.1189934877073291</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03665829714716085</v>
+        <v>0.03818499988433593</v>
       </c>
       <c r="H89" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -2944,19 +2944,19 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1637524541.654663</v>
+        <v>1479989292.497556</v>
       </c>
       <c r="F90" t="n">
-        <v>0.09835735705433252</v>
+        <v>0.09474506264788159</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05375898252081428</v>
+        <v>0.0410165661049535</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2972,19 +2972,19 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1623667506.664817</v>
+        <v>1355993044.66811</v>
       </c>
       <c r="F91" t="n">
-        <v>0.140639397263922</v>
+        <v>0.1426469785296466</v>
       </c>
       <c r="G91" t="n">
-        <v>0.0552857606365568</v>
+        <v>0.05257348855926827</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3000,19 +3000,19 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2208695741.217848</v>
+        <v>2837735241.981789</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1089919214121304</v>
+        <v>0.08729395741042906</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03872673613763859</v>
+        <v>0.03450920571943209</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3028,22 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3618324067.868474</v>
+        <v>3753849881.566225</v>
       </c>
       <c r="F93" t="n">
-        <v>0.09190255061632845</v>
+        <v>0.1101539765656939</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03842410417484143</v>
+        <v>0.03499417169050695</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3062,13 +3062,13 @@
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1627862674.363694</v>
+        <v>2162003755.296668</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1480786797277418</v>
+        <v>0.1399473705892553</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03000559766336776</v>
+        <v>0.03716527167864465</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3084,19 +3084,19 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2241456994.358526</v>
+        <v>2144014370.991261</v>
       </c>
       <c r="F95" t="n">
-        <v>0.09150103004244127</v>
+        <v>0.1264409361997297</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04355971648266316</v>
+        <v>0.03827045294435134</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3112,19 +3112,19 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1623249087.643051</v>
+        <v>1449186189.347963</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1062842365986732</v>
+        <v>0.1092131776303725</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03007268701754682</v>
+        <v>0.0302121242171131</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3140,22 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>5096875886.540041</v>
+        <v>3512801389.619946</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1449411397860768</v>
+        <v>0.1592388080610685</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02638077363492851</v>
+        <v>0.02501386249940543</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3168,22 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3799320949.708937</v>
+        <v>3299691202.020295</v>
       </c>
       <c r="F98" t="n">
-        <v>0.106690782639042</v>
+        <v>0.1001478544414117</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02778946820681034</v>
+        <v>0.02024286022153384</v>
       </c>
       <c r="H98" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
@@ -3196,19 +3196,19 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2394976711.496459</v>
+        <v>2486232114.935021</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1161764587065097</v>
+        <v>0.1003583881758463</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03451868623414395</v>
+        <v>0.02242338615698397</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3224,19 +3224,19 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3507445952.516757</v>
+        <v>3695604513.690988</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1683066485854096</v>
+        <v>0.1595636521507395</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01844686742318231</v>
+        <v>0.0182077004401275</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3252,22 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2359116909.056664</v>
+        <v>2199232035.99832</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2165579537528089</v>
+        <v>0.1692984605860612</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05496011452306245</v>
+        <v>0.05865531324697519</v>
       </c>
       <c r="H101" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_126.xlsx
+++ b/output/fit_clients/fit_round_126.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -480,23 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1553770476.66714</v>
+        <v>2451533660.16553</v>
       </c>
       <c r="F2" t="n">
-        <v>0.09610311090959012</v>
+        <v>0.0753192749244451</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03159819473533924</v>
+        <v>0.04430529822634327</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2068137530.843496</v>
+        <v>2609610836.369049</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1519099875967036</v>
+        <v>0.1308796936836175</v>
       </c>
       <c r="G3" t="n">
-        <v>0.037990376346402</v>
+        <v>0.03434347805983366</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,23 +565,30 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4358465664.101298</v>
+        <v>4436681308.565955</v>
       </c>
       <c r="F4" t="n">
-        <v>0.112529939957795</v>
+        <v>0.1519925414748941</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02525039059101144</v>
+        <v>0.03169538807546898</v>
       </c>
       <c r="H4" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>75</v>
+      </c>
+      <c r="J4" t="n">
+        <v>126</v>
+      </c>
+      <c r="K4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -564,22 +600,31 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3085518556.085054</v>
+        <v>3268002541.851557</v>
       </c>
       <c r="F5" t="n">
-        <v>0.09309063585022329</v>
+        <v>0.09903734426439967</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04535450643407826</v>
+        <v>0.03298330461025556</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>51</v>
+      </c>
+      <c r="J5" t="n">
+        <v>125</v>
+      </c>
+      <c r="K5" t="n">
+        <v>120.2112096436654</v>
       </c>
     </row>
     <row r="6">
@@ -592,23 +637,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2608809776.159655</v>
+        <v>1852513727.115959</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1148659934577797</v>
+        <v>0.1264070246512021</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04349091457101539</v>
+        <v>0.05515751588410664</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +672,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2262679458.534657</v>
+        <v>2787986039.302522</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07021647050592607</v>
+        <v>0.07016923218509134</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04802806777279441</v>
+        <v>0.04422716845174712</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -654,16 +713,25 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3202815545.511721</v>
+        <v>3175971342.043704</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1572662812356974</v>
+        <v>0.2138089673755333</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02962482700617909</v>
+        <v>0.0261097199988751</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>37</v>
+      </c>
+      <c r="J8" t="n">
+        <v>125</v>
+      </c>
+      <c r="K8" t="n">
+        <v>102.1235495038061</v>
       </c>
     </row>
     <row r="9">
@@ -676,23 +744,30 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1923623517.835591</v>
+        <v>2160625852.801207</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1690200931895059</v>
+        <v>0.1721823303772194</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03527468354433649</v>
+        <v>0.02838007640002324</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,22 +779,31 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5760810153.220137</v>
+        <v>4386524543.705175</v>
       </c>
       <c r="F10" t="n">
-        <v>0.180032523489904</v>
+        <v>0.1314271297186748</v>
       </c>
       <c r="G10" t="n">
-        <v>0.05114218346348113</v>
+        <v>0.03578465546503732</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>115</v>
+      </c>
+      <c r="J10" t="n">
+        <v>126</v>
+      </c>
+      <c r="K10" t="n">
+        <v>163.9198827933228</v>
       </c>
     </row>
     <row r="11">
@@ -732,23 +816,30 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>4230077545.110119</v>
+        <v>4041889883.618083</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1797129572038331</v>
+        <v>0.1504396269113971</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03011560518867931</v>
+        <v>0.03097151625037512</v>
       </c>
       <c r="H11" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>53</v>
+      </c>
+      <c r="J11" t="n">
+        <v>126</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -760,23 +851,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2337904571.192096</v>
+        <v>3225823722.470485</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1318250192665125</v>
+        <v>0.1294880974738878</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04534791297507602</v>
+        <v>0.03742940498681081</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,23 +886,30 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3397891030.198002</v>
+        <v>4897557190.04592</v>
       </c>
       <c r="F13" t="n">
-        <v>0.08794919591985545</v>
+        <v>0.06777927164215164</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02100059190929435</v>
+        <v>0.02840413975832312</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
       </c>
+      <c r="I13" t="n">
+        <v>61</v>
+      </c>
+      <c r="J13" t="n">
+        <v>126</v>
+      </c>
+      <c r="K13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -816,23 +921,30 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3597534935.085181</v>
+        <v>3617184406.805729</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1461734927727158</v>
+        <v>0.1741253651408321</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03339738591056248</v>
+        <v>0.03359564273782268</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
       </c>
+      <c r="I14" t="n">
+        <v>23</v>
+      </c>
+      <c r="J14" t="n">
+        <v>124</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -844,23 +956,30 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1646707430.659158</v>
+        <v>1677229115.488501</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1066131792491068</v>
+        <v>0.06578404216386304</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03727509693894319</v>
+        <v>0.04926593102886249</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -872,23 +991,30 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2280342842.466061</v>
+        <v>2259200421.813101</v>
       </c>
       <c r="F16" t="n">
-        <v>0.08778983983839891</v>
+        <v>0.07141702137092711</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03977614416110496</v>
+        <v>0.03875699761766475</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -900,22 +1026,31 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3360524834.871068</v>
+        <v>4802737748.825608</v>
       </c>
       <c r="F17" t="n">
-        <v>0.132922305774061</v>
+        <v>0.1362567357470045</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04575568770976624</v>
+        <v>0.03618863054127288</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>61</v>
+      </c>
+      <c r="J17" t="n">
+        <v>125</v>
+      </c>
+      <c r="K17" t="n">
+        <v>132.5670174227113</v>
       </c>
     </row>
     <row r="18">
@@ -928,23 +1063,30 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3205171288.949168</v>
+        <v>3837261108.411885</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1699727611772555</v>
+        <v>0.1703415805187865</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02787231323003344</v>
+        <v>0.03125960196970794</v>
       </c>
       <c r="H18" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>33</v>
+      </c>
+      <c r="J18" t="n">
+        <v>126</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -956,23 +1098,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>986911309.917835</v>
+        <v>1102575204.769282</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1795446003546234</v>
+        <v>0.1709018160931685</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02053309009891476</v>
+        <v>0.0215878422355834</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -984,23 +1133,30 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1863168462.967954</v>
+        <v>2677779509.723837</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1308706109459144</v>
+        <v>0.1012248622697718</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0200521475761399</v>
+        <v>0.02594296739144977</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1012,23 +1168,30 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2568531699.57273</v>
+        <v>2394912896.615357</v>
       </c>
       <c r="F21" t="n">
-        <v>0.08588937929703354</v>
+        <v>0.06740543258134576</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03194313271332496</v>
+        <v>0.02874484228602132</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1046,17 +1209,24 @@
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3272172179.155459</v>
+        <v>3076510395.610053</v>
       </c>
       <c r="F22" t="n">
-        <v>0.101621389871264</v>
+        <v>0.1442663430123864</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05671177278633582</v>
+        <v>0.04143911294834789</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
       </c>
+      <c r="I22" t="n">
+        <v>33</v>
+      </c>
+      <c r="J22" t="n">
+        <v>123</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1068,23 +1238,30 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>977367816.5444487</v>
+        <v>984354539.5272871</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1280296795455727</v>
+        <v>0.1556603052967919</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04093001402935227</v>
+        <v>0.04803418501939433</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1102,17 +1279,24 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3619281828.248074</v>
+        <v>2586985066.594302</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1197790976807342</v>
+        <v>0.1159503511856572</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02942978288602406</v>
+        <v>0.03333360938580274</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>37</v>
+      </c>
+      <c r="J24" t="n">
+        <v>121</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1124,23 +1308,30 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>979256461.7242055</v>
+        <v>1031777358.717182</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1182739173915189</v>
+        <v>0.08216968255207742</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02513690672124492</v>
+        <v>0.02874402471606878</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1152,23 +1343,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1122319864.809514</v>
+        <v>1135272768.191963</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1078277055634837</v>
+        <v>0.1241885139892571</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0292883788500825</v>
+        <v>0.0352050008649488</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,22 +1378,31 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4717609976.566409</v>
+        <v>3734217437.499141</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1483864867798233</v>
+        <v>0.1333905193315865</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02685603285180105</v>
+        <v>0.02412495377574278</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>50</v>
+      </c>
+      <c r="J27" t="n">
+        <v>125</v>
+      </c>
+      <c r="K27" t="n">
+        <v>118.2214833888116</v>
       </c>
     </row>
     <row r="28">
@@ -1208,23 +1415,30 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3434229584.557279</v>
+        <v>3080699634.618425</v>
       </c>
       <c r="F28" t="n">
-        <v>0.09628028968704593</v>
+        <v>0.1168313830691057</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04636521223546743</v>
+        <v>0.05039168349556418</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
       </c>
+      <c r="I28" t="n">
+        <v>27</v>
+      </c>
+      <c r="J28" t="n">
+        <v>122</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1242,16 +1456,25 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4296182928.326666</v>
+        <v>4965410786.321908</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1374184334282544</v>
+        <v>0.121413664436793</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04503533157923702</v>
+        <v>0.03242967725919373</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>116</v>
+      </c>
+      <c r="J29" t="n">
+        <v>126</v>
+      </c>
+      <c r="K29" t="n">
+        <v>175.8029525701457</v>
       </c>
     </row>
     <row r="30">
@@ -1264,23 +1487,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1536481675.470192</v>
+        <v>2095559595.093476</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1106082954265536</v>
+        <v>0.1237032832959146</v>
       </c>
       <c r="G30" t="n">
-        <v>0.0296805414047767</v>
+        <v>0.03497453300124925</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1522,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1195200567.750525</v>
+        <v>1344255554.518514</v>
       </c>
       <c r="F31" t="n">
-        <v>0.08701258312584599</v>
+        <v>0.09106762413308576</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04409023714383566</v>
+        <v>0.0346061695425221</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1326,17 +1563,24 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1645664383.277173</v>
+        <v>1441411886.924228</v>
       </c>
       <c r="F32" t="n">
-        <v>0.07554276261689126</v>
+        <v>0.1019009541049674</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03647578170024552</v>
+        <v>0.03131659443529331</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1348,23 +1592,30 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2141426761.189122</v>
+        <v>2489361615.70689</v>
       </c>
       <c r="F33" t="n">
-        <v>0.14598250200641</v>
+        <v>0.1849225865086275</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05329491812693604</v>
+        <v>0.04895801054165395</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1627,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1094016547.946168</v>
+        <v>1284641222.600009</v>
       </c>
       <c r="F34" t="n">
-        <v>0.10966519611518</v>
+        <v>0.1142662578582212</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02637494663586546</v>
+        <v>0.02600501342638023</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1404,23 +1662,30 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1033829533.764085</v>
+        <v>1362075558.057567</v>
       </c>
       <c r="F35" t="n">
-        <v>0.09686881960490934</v>
+        <v>0.1181736045783143</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03744029253651738</v>
+        <v>0.02790087335002749</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,23 +1697,30 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2026523124.484821</v>
+        <v>2707449808.323504</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1344631854079929</v>
+        <v>0.1710041967925511</v>
       </c>
       <c r="G36" t="n">
-        <v>0.01874618100600861</v>
+        <v>0.02775311661142147</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>2</v>
+      </c>
+      <c r="J36" t="n">
+        <v>86</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1732,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2113994546.418023</v>
+        <v>2140657245.501294</v>
       </c>
       <c r="F37" t="n">
-        <v>0.0844237033153489</v>
+        <v>0.08992780931921474</v>
       </c>
       <c r="G37" t="n">
-        <v>0.04228225217593919</v>
+        <v>0.03444508863561267</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1488,23 +1767,30 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1873420408.299972</v>
+        <v>1664759608.043938</v>
       </c>
       <c r="F38" t="n">
-        <v>0.08803456529215767</v>
+        <v>0.09285319823231244</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03400356905584065</v>
+        <v>0.03724416563886152</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1522,17 +1808,24 @@
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2081563759.575274</v>
+        <v>2165678663.908639</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1538038360335418</v>
+        <v>0.194445090864139</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02926160828458226</v>
+        <v>0.02859939205628881</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1544,23 +1837,30 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1521943381.028567</v>
+        <v>1765099741.857138</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1198314287008489</v>
+        <v>0.1582157640828623</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04209155413331852</v>
+        <v>0.04675822951495212</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1572,23 +1872,30 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2093700062.348035</v>
+        <v>2279708018.163758</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1444082564323736</v>
+        <v>0.1403369899063298</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04296971815897409</v>
+        <v>0.03135758136683988</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,22 +1907,31 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3840291741.00687</v>
+        <v>4206297452.845598</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1119282362664675</v>
+        <v>0.1033414416971964</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04264504461098516</v>
+        <v>0.04611515780187676</v>
       </c>
       <c r="H42" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>46</v>
+      </c>
+      <c r="J42" t="n">
+        <v>126</v>
+      </c>
+      <c r="K42" t="n">
+        <v>153.3444820455872</v>
       </c>
     </row>
     <row r="43">
@@ -1628,23 +1944,30 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>1985350794.737883</v>
+        <v>2637924004.999363</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1784476438230191</v>
+        <v>0.1331288081006919</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02461558175911413</v>
+        <v>0.02390018186419419</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1656,23 +1979,30 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2364877771.361098</v>
+        <v>1726179223.268593</v>
       </c>
       <c r="F44" t="n">
-        <v>0.07103245477707433</v>
+        <v>0.07580873408225752</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02793759279073216</v>
+        <v>0.02438788250406315</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1684,23 +2014,30 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1633479776.510072</v>
+        <v>1741395922.173533</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1215993244162355</v>
+        <v>0.1383597698390784</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04837453359712643</v>
+        <v>0.05416432409803782</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1712,23 +2049,30 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4359998409.199356</v>
+        <v>4260027851.271172</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1731595195117787</v>
+        <v>0.1674578902870644</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04212599144183717</v>
+        <v>0.0467119981772983</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
       </c>
+      <c r="I46" t="n">
+        <v>72</v>
+      </c>
+      <c r="J46" t="n">
+        <v>126</v>
+      </c>
+      <c r="K46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1746,16 +2090,25 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4652874404.412971</v>
+        <v>5028027417.655554</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1649135095803247</v>
+        <v>0.1821862602324867</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04006380256665269</v>
+        <v>0.03930833352838292</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>56</v>
+      </c>
+      <c r="J47" t="n">
+        <v>125</v>
+      </c>
+      <c r="K47" t="n">
+        <v>122.787452849111</v>
       </c>
     </row>
     <row r="48">
@@ -1768,23 +2121,30 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4297897050.449153</v>
+        <v>4504143684.026562</v>
       </c>
       <c r="F48" t="n">
-        <v>0.06692063966028657</v>
+        <v>0.06758390347068624</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03547002327665961</v>
+        <v>0.0299835098687653</v>
       </c>
       <c r="H48" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>49</v>
+      </c>
+      <c r="J48" t="n">
+        <v>126</v>
+      </c>
+      <c r="K48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1796,23 +2156,30 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1934385939.741223</v>
+        <v>1267042082.111668</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1620557728649333</v>
+        <v>0.1871003583385561</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04083214202594726</v>
+        <v>0.03867491504683597</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1824,23 +2191,30 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3128194392.861132</v>
+        <v>3378513940.347022</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1457145236515418</v>
+        <v>0.1446793430350763</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04543836863359457</v>
+        <v>0.04265177915183769</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
       </c>
+      <c r="I50" t="n">
+        <v>43</v>
+      </c>
+      <c r="J50" t="n">
+        <v>124</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1858,17 +2232,24 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1388456750.477895</v>
+        <v>1214747923.227526</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1320926556049137</v>
+        <v>0.1240266316931899</v>
       </c>
       <c r="G51" t="n">
-        <v>0.0419553621190522</v>
+        <v>0.04854601712773034</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1880,23 +2261,30 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>5282598996.548702</v>
+        <v>3736439372.894181</v>
       </c>
       <c r="F52" t="n">
-        <v>0.124411990223361</v>
+        <v>0.1105829257991511</v>
       </c>
       <c r="G52" t="n">
-        <v>0.0456232782936016</v>
+        <v>0.04294054891824678</v>
       </c>
       <c r="H52" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>96</v>
+      </c>
+      <c r="J52" t="n">
+        <v>126</v>
+      </c>
+      <c r="K52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -1914,16 +2302,25 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3672178821.787169</v>
+        <v>2533894163.964029</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1553292713173008</v>
+        <v>0.1331348145076977</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03145665360184171</v>
+        <v>0.02680746881109268</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
+      </c>
+      <c r="I53" t="n">
+        <v>15</v>
+      </c>
+      <c r="J53" t="n">
+        <v>125</v>
+      </c>
+      <c r="K53" t="n">
+        <v>59.64648299914239</v>
       </c>
     </row>
     <row r="54">
@@ -1936,23 +2333,30 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3063687139.846312</v>
+        <v>4500580562.612235</v>
       </c>
       <c r="F54" t="n">
-        <v>0.140274206211621</v>
+        <v>0.1261832988853064</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03407712340335545</v>
+        <v>0.0510141111548334</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
       </c>
+      <c r="I54" t="n">
+        <v>57</v>
+      </c>
+      <c r="J54" t="n">
+        <v>126</v>
+      </c>
+      <c r="K54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -1964,22 +2368,31 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3707611503.094367</v>
+        <v>4471509069.393855</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1804425483005039</v>
+        <v>0.1620552875562035</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02833283020494836</v>
+        <v>0.02069345380360239</v>
       </c>
       <c r="H55" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>58</v>
+      </c>
+      <c r="J55" t="n">
+        <v>125</v>
+      </c>
+      <c r="K55" t="n">
+        <v>137.1354376001105</v>
       </c>
     </row>
     <row r="56">
@@ -1992,23 +2405,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1707372031.164766</v>
+        <v>1787411013.114861</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1643856341580798</v>
+        <v>0.1423353352576649</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05111568040422446</v>
+        <v>0.05659487209816196</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,22 +2440,31 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4104455855.120771</v>
+        <v>4217717716.794511</v>
       </c>
       <c r="F57" t="n">
-        <v>0.116736777216503</v>
+        <v>0.1155879625499497</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01922163443099192</v>
+        <v>0.02451875932468897</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
+      </c>
+      <c r="I57" t="n">
+        <v>49</v>
+      </c>
+      <c r="J57" t="n">
+        <v>125</v>
+      </c>
+      <c r="K57" t="n">
+        <v>142.0575276428644</v>
       </c>
     </row>
     <row r="58">
@@ -2054,17 +2483,24 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1795689737.016399</v>
+        <v>1668021700.866933</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1922018296130262</v>
+        <v>0.1534439128338397</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02479971044819667</v>
+        <v>0.03461326908650134</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2082,17 +2518,24 @@
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>5410984559.712533</v>
+        <v>4765394638.288939</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1272833451944076</v>
+        <v>0.08384926096639919</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04647087659851448</v>
+        <v>0.03126747138730002</v>
       </c>
       <c r="H59" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>61</v>
+      </c>
+      <c r="J59" t="n">
+        <v>126</v>
+      </c>
+      <c r="K59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2104,22 +2547,31 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3781575787.924156</v>
+        <v>3611315441.300503</v>
       </c>
       <c r="F60" t="n">
-        <v>0.2024946979324758</v>
+        <v>0.1684878537794049</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02398530193988895</v>
+        <v>0.03000932792439162</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
+      </c>
+      <c r="I60" t="n">
+        <v>19</v>
+      </c>
+      <c r="J60" t="n">
+        <v>125</v>
+      </c>
+      <c r="K60" t="n">
+        <v>130.3239374225645</v>
       </c>
     </row>
     <row r="61">
@@ -2132,23 +2584,30 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2951402474.969675</v>
+        <v>2834949212.17368</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1765586675769484</v>
+        <v>0.1539335266275791</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02008845807498378</v>
+        <v>0.02919191041707364</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>3</v>
+      </c>
+      <c r="J61" t="n">
+        <v>118</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2160,23 +2619,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1587157284.992725</v>
+        <v>1449015837.699623</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1633323277967229</v>
+        <v>0.1741292409972889</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04904656808495205</v>
+        <v>0.03342274905192466</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2188,23 +2654,30 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3400114160.509745</v>
+        <v>4626081190.986228</v>
       </c>
       <c r="F63" t="n">
-        <v>0.06577439169855626</v>
+        <v>0.06778297822520282</v>
       </c>
       <c r="G63" t="n">
-        <v>0.0470748737003323</v>
+        <v>0.04652576889890554</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
       </c>
+      <c r="I63" t="n">
+        <v>62</v>
+      </c>
+      <c r="J63" t="n">
+        <v>126</v>
+      </c>
+      <c r="K63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2216,23 +2689,30 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5442468982.363598</v>
+        <v>3630504288.091204</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1739788611475094</v>
+        <v>0.1373996106270141</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02768484807070212</v>
+        <v>0.02414986473562608</v>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>62</v>
+      </c>
+      <c r="J64" t="n">
+        <v>124</v>
+      </c>
+      <c r="K64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2250,16 +2730,25 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5409742697.149566</v>
+        <v>5263532108.800566</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1370358831396671</v>
+        <v>0.1502756128270089</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02833933268194628</v>
+        <v>0.03229845888079044</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>105</v>
+      </c>
+      <c r="J65" t="n">
+        <v>126</v>
+      </c>
+      <c r="K65" t="n">
+        <v>152.0155182138631</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2761,31 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>3918332855.935094</v>
+        <v>3830124508.488302</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1069834134351425</v>
+        <v>0.1247549066917516</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03228792890427674</v>
+        <v>0.03430955193925553</v>
       </c>
       <c r="H66" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>62</v>
+      </c>
+      <c r="J66" t="n">
+        <v>125</v>
+      </c>
+      <c r="K66" t="n">
+        <v>136.8631571472224</v>
       </c>
     </row>
     <row r="67">
@@ -2300,23 +2798,30 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3285558423.989485</v>
+        <v>2415028723.985691</v>
       </c>
       <c r="F67" t="n">
-        <v>0.06516644926452882</v>
+        <v>0.07833603950378883</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03171796370644295</v>
+        <v>0.03626337440541973</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>0</v>
+      </c>
+      <c r="J67" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2328,23 +2833,30 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4698693425.542312</v>
+        <v>5396161542.812112</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1383761142953965</v>
+        <v>0.1221702814235391</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03228483336071868</v>
+        <v>0.04190519496001335</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
       </c>
+      <c r="I68" t="n">
+        <v>63</v>
+      </c>
+      <c r="J68" t="n">
+        <v>126</v>
+      </c>
+      <c r="K68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2362,17 +2874,24 @@
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2304513223.311582</v>
+        <v>1706775024.572408</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1739542221700794</v>
+        <v>0.1242427909372247</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05494459456923984</v>
+        <v>0.04303464574035793</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2384,22 +2903,31 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2678296989.381632</v>
+        <v>2653485170.941532</v>
       </c>
       <c r="F70" t="n">
-        <v>0.07165099953347566</v>
+        <v>0.1023136662994088</v>
       </c>
       <c r="G70" t="n">
-        <v>0.0460209705951625</v>
+        <v>0.04558148222892797</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
+      </c>
+      <c r="I70" t="n">
+        <v>15</v>
+      </c>
+      <c r="J70" t="n">
+        <v>125</v>
+      </c>
+      <c r="K70" t="n">
+        <v>66.91085888169422</v>
       </c>
     </row>
     <row r="71">
@@ -2412,22 +2940,31 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3489958517.868196</v>
+        <v>4229383171.237876</v>
       </c>
       <c r="F71" t="n">
-        <v>0.149355628700614</v>
+        <v>0.1243730706693913</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02281780150562325</v>
+        <v>0.02335552680361709</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>102</v>
+      </c>
+      <c r="J71" t="n">
+        <v>126</v>
+      </c>
+      <c r="K71" t="n">
+        <v>150.7499842997059</v>
       </c>
     </row>
     <row r="72">
@@ -2440,23 +2977,30 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1991962023.879693</v>
+        <v>2124596246.502723</v>
       </c>
       <c r="F72" t="n">
-        <v>0.0669760703495699</v>
+        <v>0.08862339691888942</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03635144211531049</v>
+        <v>0.03375114303996972</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2468,23 +3012,30 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3596256147.882234</v>
+        <v>3058768880.506335</v>
       </c>
       <c r="F73" t="n">
-        <v>0.07672336935863333</v>
+        <v>0.1087354601224339</v>
       </c>
       <c r="G73" t="n">
-        <v>0.05262238681888105</v>
+        <v>0.04326251415824039</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>9</v>
+      </c>
+      <c r="J73" t="n">
+        <v>118</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2496,23 +3047,30 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3423337369.542165</v>
+        <v>3144205150.575105</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1745293982522929</v>
+        <v>0.1693336324741659</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02975812428810605</v>
+        <v>0.0292526388112639</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
       </c>
+      <c r="I74" t="n">
+        <v>42</v>
+      </c>
+      <c r="J74" t="n">
+        <v>123</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2524,23 +3082,30 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1996808225.350426</v>
+        <v>1839641945.113748</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1444174533608072</v>
+        <v>0.1151944155250975</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03501491270317893</v>
+        <v>0.02347301393942462</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,23 +3117,30 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>5298551382.845653</v>
+        <v>3869818512.174075</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1169897419239857</v>
+        <v>0.09695577440098124</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03174404930517701</v>
+        <v>0.02438475876679011</v>
       </c>
       <c r="H76" t="b">
         <v>1</v>
       </c>
+      <c r="I76" t="n">
+        <v>58</v>
+      </c>
+      <c r="J76" t="n">
+        <v>126</v>
+      </c>
+      <c r="K76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2580,23 +3152,30 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2264439738.699465</v>
+        <v>1415345936.544032</v>
       </c>
       <c r="F77" t="n">
-        <v>0.128515385931942</v>
+        <v>0.1369107322120689</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02389845941949196</v>
+        <v>0.02053682334936715</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,22 +3187,31 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4282749009.993819</v>
+        <v>3429428728.983025</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1002837331676744</v>
+        <v>0.107102011355578</v>
       </c>
       <c r="G78" t="n">
-        <v>0.03551932311003746</v>
+        <v>0.05080337449575126</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>62</v>
+      </c>
+      <c r="J78" t="n">
+        <v>125</v>
+      </c>
+      <c r="K78" t="n">
+        <v>123.6663436978404</v>
       </c>
     </row>
     <row r="79">
@@ -2636,23 +3224,30 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1249808154.480173</v>
+        <v>1288328234.798407</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1363161011999159</v>
+        <v>0.108526759893123</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02646671497934078</v>
+        <v>0.03938483759465133</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2664,22 +3259,31 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4803388145.750813</v>
+        <v>3605936780.692061</v>
       </c>
       <c r="F80" t="n">
-        <v>0.07736230909366033</v>
+        <v>0.110270013095537</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03706513919534338</v>
+        <v>0.0244404028476173</v>
       </c>
       <c r="H80" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>61</v>
+      </c>
+      <c r="J80" t="n">
+        <v>125</v>
+      </c>
+      <c r="K80" t="n">
+        <v>99.29217833731852</v>
       </c>
     </row>
     <row r="81">
@@ -2692,22 +3296,31 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3715925763.477707</v>
+        <v>3357760298.913844</v>
       </c>
       <c r="F81" t="n">
-        <v>0.09390620422359544</v>
+        <v>0.1236898470497549</v>
       </c>
       <c r="G81" t="n">
-        <v>0.0201355854332133</v>
+        <v>0.02993646032014104</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>57</v>
+      </c>
+      <c r="J81" t="n">
+        <v>125</v>
+      </c>
+      <c r="K81" t="n">
+        <v>98.0306010099776</v>
       </c>
     </row>
     <row r="82">
@@ -2720,23 +3333,30 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5490168727.718168</v>
+        <v>4563522086.725661</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1643975584136806</v>
+        <v>0.1680602405165456</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02491866617404267</v>
+        <v>0.02750644481143703</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>87</v>
+      </c>
+      <c r="J82" t="n">
+        <v>126</v>
+      </c>
+      <c r="K82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -2748,23 +3368,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2194004685.201494</v>
+        <v>2278223622.369156</v>
       </c>
       <c r="F83" t="n">
-        <v>0.09670093040163026</v>
+        <v>0.1404493513136273</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03262860215564747</v>
+        <v>0.03289524114188126</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2776,23 +3403,30 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2605903971.510225</v>
+        <v>1855197684.173687</v>
       </c>
       <c r="F84" t="n">
-        <v>0.08143215391727213</v>
+        <v>0.07496746046540501</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03956886967507935</v>
+        <v>0.04107364124152859</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2804,23 +3438,30 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2360516618.76661</v>
+        <v>2749452821.72377</v>
       </c>
       <c r="F85" t="n">
-        <v>0.138858690329088</v>
+        <v>0.1600696041016345</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04082727718869873</v>
+        <v>0.0429127397171938</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
+      <c r="I85" t="n">
+        <v>19</v>
+      </c>
+      <c r="J85" t="n">
+        <v>106</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2832,23 +3473,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2561171327.46129</v>
+        <v>2044311978.518876</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1460129438666827</v>
+        <v>0.1291661026935961</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02724530647219011</v>
+        <v>0.02521312270370119</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3508,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1282457520.26876</v>
+        <v>1171290634.933147</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1847992014130058</v>
+        <v>0.173293753830914</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03760572632779613</v>
+        <v>0.04293775157212743</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2888,23 +3543,30 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3274760145.213447</v>
+        <v>2436509725.638171</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1348194909535843</v>
+        <v>0.1544866884159831</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03905041944113152</v>
+        <v>0.02469403901743161</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
+      <c r="I88" t="n">
+        <v>18</v>
+      </c>
+      <c r="J88" t="n">
+        <v>122</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2916,23 +3578,30 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2796217123.660525</v>
+        <v>3055740909.214037</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1189934877073291</v>
+        <v>0.09799072368995648</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03818499988433593</v>
+        <v>0.0273390482330847</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>11</v>
+      </c>
+      <c r="J89" t="n">
+        <v>124</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2950,17 +3619,24 @@
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1479989292.497556</v>
+        <v>2161238701.892624</v>
       </c>
       <c r="F90" t="n">
-        <v>0.09474506264788159</v>
+        <v>0.1382203105982851</v>
       </c>
       <c r="G90" t="n">
-        <v>0.0410165661049535</v>
+        <v>0.05366087317081714</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2978,17 +3654,24 @@
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1355993044.66811</v>
+        <v>1763514481.445528</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1426469785296466</v>
+        <v>0.1791155515829784</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05257348855926827</v>
+        <v>0.05906995220303016</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3006,17 +3689,24 @@
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2837735241.981789</v>
+        <v>2412864014.303478</v>
       </c>
       <c r="F92" t="n">
-        <v>0.08729395741042906</v>
+        <v>0.09309402468195672</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03450920571943209</v>
+        <v>0.04220969553551268</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,23 +3718,30 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3753849881.566225</v>
+        <v>3595600649.206641</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1101539765656939</v>
+        <v>0.0924487829043187</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03499417169050695</v>
+        <v>0.03757545538458399</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>57</v>
+      </c>
+      <c r="J93" t="n">
+        <v>124</v>
+      </c>
+      <c r="K93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3062,17 +3759,24 @@
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2162003755.296668</v>
+        <v>1918843938.649482</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1399473705892553</v>
+        <v>0.1065764360040259</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03716527167864465</v>
+        <v>0.02645247439306365</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3788,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2144014370.991261</v>
+        <v>3086582999.749548</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1264409361997297</v>
+        <v>0.08645678312994183</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03827045294435134</v>
+        <v>0.04018974772495307</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>1</v>
+      </c>
+      <c r="J95" t="n">
+        <v>14</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3118,17 +3829,24 @@
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1449186189.347963</v>
+        <v>1842672237.465182</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1092131776303725</v>
+        <v>0.1003451203895844</v>
       </c>
       <c r="G96" t="n">
-        <v>0.0302121242171131</v>
+        <v>0.04739238456447701</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3146,17 +3864,24 @@
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3512801389.619946</v>
+        <v>4447601210.989924</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1592388080610685</v>
+        <v>0.1127903315311163</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02501386249940543</v>
+        <v>0.02255607762992707</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
       </c>
+      <c r="I97" t="n">
+        <v>60</v>
+      </c>
+      <c r="J97" t="n">
+        <v>126</v>
+      </c>
+      <c r="K97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3174,17 +3899,24 @@
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3299691202.020295</v>
+        <v>3715284049.765707</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1001478544414117</v>
+        <v>0.0897021238925077</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02024286022153384</v>
+        <v>0.03151585202039466</v>
       </c>
       <c r="H98" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I98" t="n">
+        <v>29</v>
+      </c>
+      <c r="J98" t="n">
+        <v>126</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3196,23 +3928,30 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2486232114.935021</v>
+        <v>2729686962.637391</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1003583881758463</v>
+        <v>0.1389162404929218</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02242338615698397</v>
+        <v>0.03368689370791599</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>1</v>
+      </c>
+      <c r="J99" t="n">
+        <v>62</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3224,22 +3963,31 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3695604513.690988</v>
+        <v>4288710102.607635</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1595636521507395</v>
+        <v>0.1260296151437455</v>
       </c>
       <c r="G100" t="n">
-        <v>0.0182077004401275</v>
+        <v>0.02217847484174915</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
+      </c>
+      <c r="I100" t="n">
+        <v>52</v>
+      </c>
+      <c r="J100" t="n">
+        <v>125</v>
+      </c>
+      <c r="K100" t="n">
+        <v>136.7398643873424</v>
       </c>
     </row>
     <row r="101">
@@ -3258,17 +4006,24 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2199232035.99832</v>
+        <v>2513212191.175992</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1692984605860612</v>
+        <v>0.1787591644758386</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05865531324697519</v>
+        <v>0.03950017410382407</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>7</v>
+      </c>
+      <c r="J101" t="n">
+        <v>119</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
